--- a/table_model____spi-3__lasso_($\beta_=_$0.0).xlsx
+++ b/table_model____spi-3__lasso_($\beta_=_$0.0).xlsx
@@ -690,13 +690,13 @@
         <v>0.798426952</v>
       </c>
       <c r="B2">
-        <v>0.8136842301294562</v>
+        <v>0.8136849322824614</v>
       </c>
       <c r="C2">
-        <v>0.8112214212849191</v>
+        <v>0.8112210609828464</v>
       </c>
       <c r="D2">
-        <v>0.8642527774985471</v>
+        <v>0.8399854459895979</v>
       </c>
       <c r="E2">
         <v>0.8755513260569462</v>
@@ -845,13 +845,13 @@
         <v>-0.135008744</v>
       </c>
       <c r="B3">
-        <v>0.7376773311005489</v>
+        <v>0.7376917962417473</v>
       </c>
       <c r="C3">
-        <v>0.7374240058642844</v>
+        <v>0.7374244945559539</v>
       </c>
       <c r="D3">
-        <v>0.7266317884512826</v>
+        <v>0.7353190678214099</v>
       </c>
       <c r="E3">
         <v>0.7936886244843679</v>
@@ -1000,13 +1000,13 @@
         <v>0.483128577</v>
       </c>
       <c r="B4">
-        <v>0.1122183091804765</v>
+        <v>0.11220594709999</v>
       </c>
       <c r="C4">
-        <v>0.1070538588970625</v>
+        <v>0.1070525893266505</v>
       </c>
       <c r="D4">
-        <v>0.1550325721962298</v>
+        <v>0.1993040711227196</v>
       </c>
       <c r="E4">
         <v>0.213132968876693</v>
@@ -1155,13 +1155,13 @@
         <v>0.358803155</v>
       </c>
       <c r="B5">
-        <v>-0.4392129573738491</v>
+        <v>-0.4392284522902123</v>
       </c>
       <c r="C5">
-        <v>-0.4422689924891889</v>
+        <v>-0.4422700509872533</v>
       </c>
       <c r="D5">
-        <v>-0.4401270530916294</v>
+        <v>-0.3096538922693802</v>
       </c>
       <c r="E5">
         <v>-0.3518811275629246</v>
@@ -1310,13 +1310,13 @@
         <v>0.9297649529999999</v>
       </c>
       <c r="B6">
-        <v>0.1387230967067605</v>
+        <v>0.1387191371043541</v>
       </c>
       <c r="C6">
-        <v>0.1353134504839098</v>
+        <v>0.1353127644853426</v>
       </c>
       <c r="D6">
-        <v>0.1323359202665068</v>
+        <v>0.2030647996204058</v>
       </c>
       <c r="E6">
         <v>0.2284696673407941</v>
@@ -1465,13 +1465,13 @@
         <v>-0.343866365</v>
       </c>
       <c r="B7">
-        <v>-0.6066125251888034</v>
+        <v>-0.6066306651436271</v>
       </c>
       <c r="C7">
-        <v>-0.6130541157236943</v>
+        <v>-0.6130557952430964</v>
       </c>
       <c r="D7">
-        <v>-0.6040566576417201</v>
+        <v>-0.5318493768788631</v>
       </c>
       <c r="E7">
         <v>-0.5487365773808962</v>
@@ -1620,13 +1620,13 @@
         <v>-0.394869887</v>
       </c>
       <c r="B8">
-        <v>-0.3142686130926448</v>
+        <v>-0.314297844298682</v>
       </c>
       <c r="C8">
-        <v>-0.3184137122817573</v>
+        <v>-0.3184154398355965</v>
       </c>
       <c r="D8">
-        <v>-0.360877512684029</v>
+        <v>-0.2527409155779882</v>
       </c>
       <c r="E8">
         <v>-0.2555117789393339</v>
@@ -1775,13 +1775,13 @@
         <v>0.124976886</v>
       </c>
       <c r="B9">
-        <v>0.444753627875762</v>
+        <v>0.4447505252994331</v>
       </c>
       <c r="C9">
-        <v>0.4466422538527614</v>
+        <v>0.4466424321918307</v>
       </c>
       <c r="D9">
-        <v>0.398761983610127</v>
+        <v>0.4358407704453938</v>
       </c>
       <c r="E9">
         <v>0.4656062396041871</v>
@@ -1930,13 +1930,13 @@
         <v>0.714385868</v>
       </c>
       <c r="B10">
-        <v>0.9017178620985927</v>
+        <v>0.9017240849705745</v>
       </c>
       <c r="C10">
-        <v>0.9076376073941576</v>
+        <v>0.9076387652722425</v>
       </c>
       <c r="D10">
-        <v>0.8378327640373658</v>
+        <v>0.8562997844960412</v>
       </c>
       <c r="E10">
         <v>0.9210352444344246</v>
@@ -2085,13 +2085,13 @@
         <v>0.495936019</v>
       </c>
       <c r="B11">
-        <v>0.5399646535633608</v>
+        <v>0.5399726653038799</v>
       </c>
       <c r="C11">
-        <v>0.5408533306146623</v>
+        <v>0.5408537639275398</v>
       </c>
       <c r="D11">
-        <v>0.5068250633615595</v>
+        <v>0.5104607452494032</v>
       </c>
       <c r="E11">
         <v>0.5537286848030304</v>
@@ -2240,13 +2240,13 @@
         <v>-1.049232267</v>
       </c>
       <c r="B12">
-        <v>-0.9393377580669491</v>
+        <v>-0.9393349734294322</v>
       </c>
       <c r="C12">
-        <v>-0.9471753608830206</v>
+        <v>-0.9471764936936</v>
       </c>
       <c r="D12">
-        <v>-0.8521149152089917</v>
+        <v>-0.8268784559723336</v>
       </c>
       <c r="E12">
         <v>-0.8340441802057802</v>
@@ -2395,13 +2395,13 @@
         <v>-0.962528123</v>
       </c>
       <c r="B13">
-        <v>-0.6700894247507189</v>
+        <v>-0.6701368847603677</v>
       </c>
       <c r="C13">
-        <v>-0.6615722297175297</v>
+        <v>-0.6615725946805575</v>
       </c>
       <c r="D13">
-        <v>-0.5383109465972102</v>
+        <v>-0.538931859355062</v>
       </c>
       <c r="E13">
         <v>-0.5124229525906433</v>
@@ -2550,13 +2550,13 @@
         <v>-0.823266309</v>
       </c>
       <c r="B14">
-        <v>-0.5512529458155986</v>
+        <v>-0.5512662837284041</v>
       </c>
       <c r="C14">
-        <v>-0.5528209044540987</v>
+        <v>-0.5528216344871064</v>
       </c>
       <c r="D14">
-        <v>-0.528922051913217</v>
+        <v>-0.5389065436237354</v>
       </c>
       <c r="E14">
         <v>-0.5356124120602207</v>
@@ -2705,13 +2705,13 @@
         <v>-0.566899673</v>
       </c>
       <c r="B15">
-        <v>-0.4868564746786647</v>
+        <v>-0.4868797151590193</v>
       </c>
       <c r="C15">
-        <v>-0.488782049865836</v>
+        <v>-0.4887832040020261</v>
       </c>
       <c r="D15">
-        <v>-0.5524788056997966</v>
+        <v>-0.4769839182784229</v>
       </c>
       <c r="E15">
         <v>-0.5058395596314569</v>
@@ -2860,13 +2860,13 @@
         <v>1.061843082</v>
       </c>
       <c r="B16">
-        <v>0.9704898529032489</v>
+        <v>0.9704629161548174</v>
       </c>
       <c r="C16">
-        <v>0.9848270394539885</v>
+        <v>0.9848283189748492</v>
       </c>
       <c r="D16">
-        <v>0.8451694090495698</v>
+        <v>0.896102263325954</v>
       </c>
       <c r="E16">
         <v>0.9666967720972252</v>
@@ -3015,13 +3015,13 @@
         <v>1.223874814</v>
       </c>
       <c r="B17">
-        <v>1.103316393116184</v>
+        <v>1.103288060974438</v>
       </c>
       <c r="C17">
-        <v>1.105660151403125</v>
+        <v>1.105659487219356</v>
       </c>
       <c r="D17">
-        <v>1.103132080413388</v>
+        <v>1.129005599293841</v>
       </c>
       <c r="E17">
         <v>1.155621851064893</v>
@@ -3170,13 +3170,13 @@
         <v>1.243571118</v>
       </c>
       <c r="B18">
-        <v>1.026939045204644</v>
+        <v>1.026895235565926</v>
       </c>
       <c r="C18">
-        <v>1.02785211217059</v>
+        <v>1.02785066034765</v>
       </c>
       <c r="D18">
-        <v>1.0550029918988</v>
+        <v>1.069260296366753</v>
       </c>
       <c r="E18">
         <v>1.075118173476767</v>
@@ -3325,13 +3325,13 @@
         <v>-1.371414383</v>
       </c>
       <c r="B19">
-        <v>-1.212730787257905</v>
+        <v>-1.212680664732575</v>
       </c>
       <c r="C19">
-        <v>-1.21336683826254</v>
+        <v>-1.213365118889539</v>
       </c>
       <c r="D19">
-        <v>-1.10497011072786</v>
+        <v>-1.119631235860941</v>
       </c>
       <c r="E19">
         <v>-1.096805142815122</v>
@@ -3480,13 +3480,13 @@
         <v>-1.6161627</v>
       </c>
       <c r="B20">
-        <v>-1.303212239455642</v>
+        <v>-1.303221957971017</v>
       </c>
       <c r="C20">
-        <v>-1.30838180097647</v>
+        <v>-1.308382977289136</v>
       </c>
       <c r="D20">
-        <v>-1.32290290051982</v>
+        <v>-1.243788746853486</v>
       </c>
       <c r="E20">
         <v>-1.308765036270852</v>
@@ -3635,13 +3635,13 @@
         <v>-1.663613601</v>
       </c>
       <c r="B21">
-        <v>-1.282958106242921</v>
+        <v>-1.282999673762638</v>
       </c>
       <c r="C21">
-        <v>-1.289464466310762</v>
+        <v>-1.289467006591524</v>
       </c>
       <c r="D21">
-        <v>-1.32298701453903</v>
+        <v>-1.199746352697005</v>
       </c>
       <c r="E21">
         <v>-1.2954079709989</v>
@@ -3790,13 +3790,13 @@
         <v>-0.39083508</v>
       </c>
       <c r="B22">
-        <v>-0.4385586351929269</v>
+        <v>-0.4385838971568398</v>
       </c>
       <c r="C22">
-        <v>-0.4434059356549536</v>
+        <v>-0.4434076262329854</v>
       </c>
       <c r="D22">
-        <v>-0.4759425699053037</v>
+        <v>-0.3816312967671186</v>
       </c>
       <c r="E22">
         <v>-0.3995021081311028</v>
@@ -3945,13 +3945,13 @@
         <v>-1.294350414</v>
       </c>
       <c r="B23">
-        <v>-1.395374303958039</v>
+        <v>-1.395383988887333</v>
       </c>
       <c r="C23">
-        <v>-1.410274745378204</v>
+        <v>-1.410277445840886</v>
       </c>
       <c r="D23">
-        <v>-1.33934821827724</v>
+        <v>-1.265208140614375</v>
       </c>
       <c r="E23">
         <v>-1.313821788513319</v>
@@ -4100,13 +4100,13 @@
         <v>-1.735350123</v>
       </c>
       <c r="B24">
-        <v>-1.742790500489759</v>
+        <v>-1.742816667747308</v>
       </c>
       <c r="C24">
-        <v>-1.762281144119866</v>
+        <v>-1.762285176931643</v>
       </c>
       <c r="D24">
-        <v>-1.728865317783379</v>
+        <v>-1.586773517010732</v>
       </c>
       <c r="E24">
         <v>-1.688183481897546</v>
@@ -4255,13 +4255,13 @@
         <v>-1.464171309</v>
       </c>
       <c r="B25">
-        <v>-1.196689397275888</v>
+        <v>-1.196778377248509</v>
       </c>
       <c r="C25">
-        <v>-1.206769511756916</v>
+        <v>-1.206774349773027</v>
       </c>
       <c r="D25">
-        <v>-1.324711563169744</v>
+        <v>-1.107383846234009</v>
       </c>
       <c r="E25">
         <v>-1.248517076332456</v>
@@ -4410,13 +4410,13 @@
         <v>-1.138267628</v>
       </c>
       <c r="B26">
-        <v>-1.165902799291145</v>
+        <v>-1.165988256440533</v>
       </c>
       <c r="C26">
-        <v>-1.175007303903191</v>
+        <v>-1.175011858519073</v>
       </c>
       <c r="D26">
-        <v>-1.295984583238627</v>
+        <v>-1.088308168962162</v>
       </c>
       <c r="E26">
         <v>-1.22846936479608</v>
@@ -4565,13 +4565,13 @@
         <v>-0.231935471</v>
       </c>
       <c r="B27">
-        <v>-0.2043668165368208</v>
+        <v>-0.2043899638570599</v>
       </c>
       <c r="C27">
-        <v>-0.2063523913668515</v>
+        <v>-0.2063535507237752</v>
       </c>
       <c r="D27">
-        <v>-0.2677461623065173</v>
+        <v>-0.1955729180388293</v>
       </c>
       <c r="E27">
         <v>-0.2089484846089565</v>
@@ -4720,13 +4720,13 @@
         <v>-1.071257154</v>
       </c>
       <c r="B28">
-        <v>-1.268343864625045</v>
+        <v>-1.268331214207616</v>
       </c>
       <c r="C28">
-        <v>-1.271871622609833</v>
+        <v>-1.27187171891271</v>
       </c>
       <c r="D28">
-        <v>-1.216261744726107</v>
+        <v>-1.19906413284185</v>
       </c>
       <c r="E28">
         <v>-1.219919716444038</v>
@@ -4875,13 +4875,13 @@
         <v>-0.788753691</v>
       </c>
       <c r="B29">
-        <v>-0.7213266187892521</v>
+        <v>-0.7213438647016945</v>
       </c>
       <c r="C29">
-        <v>-0.7243627053539666</v>
+        <v>-0.7243638084778041</v>
       </c>
       <c r="D29">
-        <v>-0.6971779073031666</v>
+        <v>-0.6478035001967736</v>
       </c>
       <c r="E29">
         <v>-0.6683468373070726</v>
@@ -5030,13 +5030,13 @@
         <v>0.168216722</v>
       </c>
       <c r="B30">
-        <v>0.3060332387013938</v>
+        <v>0.3060437678936512</v>
       </c>
       <c r="C30">
-        <v>0.3063503709224286</v>
+        <v>0.3063508027404975</v>
       </c>
       <c r="D30">
-        <v>0.3014257010636771</v>
+        <v>0.3193139176406322</v>
       </c>
       <c r="E30">
         <v>0.3623845643836405</v>
@@ -5185,13 +5185,13 @@
         <v>0.589617249</v>
       </c>
       <c r="B31">
-        <v>1.086229459183396</v>
+        <v>1.086253960390593</v>
       </c>
       <c r="C31">
-        <v>1.088942276843855</v>
+        <v>1.088943588740705</v>
       </c>
       <c r="D31">
-        <v>1.060119582783041</v>
+        <v>1.068891331411722</v>
       </c>
       <c r="E31">
         <v>1.123184772612899</v>
@@ -5340,13 +5340,13 @@
         <v>0.34764818</v>
       </c>
       <c r="B32">
-        <v>0.8322786260809727</v>
+        <v>0.8322992104881175</v>
       </c>
       <c r="C32">
-        <v>0.8343302968497126</v>
+        <v>0.8343313636832541</v>
       </c>
       <c r="D32">
-        <v>0.8063340245389753</v>
+        <v>0.8121147483009055</v>
       </c>
       <c r="E32">
         <v>0.8605426187320497</v>
@@ -5495,13 +5495,13 @@
         <v>-1.151348471</v>
       </c>
       <c r="B33">
-        <v>-0.3190326244625374</v>
+        <v>-0.3190419057620304</v>
       </c>
       <c r="C33">
-        <v>-0.3200696720747073</v>
+        <v>-0.3200701751280648</v>
       </c>
       <c r="D33">
-        <v>-0.3410264575492277</v>
+        <v>-0.3142585957378308</v>
       </c>
       <c r="E33">
         <v>-0.3269661863776743</v>
@@ -5650,13 +5650,13 @@
         <v>-0.696093006</v>
       </c>
       <c r="B34">
-        <v>-0.7462889599276052</v>
+        <v>-0.746305332263967</v>
       </c>
       <c r="C34">
-        <v>-0.7510682273723392</v>
+        <v>-0.7510695813640615</v>
       </c>
       <c r="D34">
-        <v>-0.7529142148612759</v>
+        <v>-0.6930756574553879</v>
       </c>
       <c r="E34">
         <v>-0.7234989080248068</v>
@@ -5805,13 +5805,13 @@
         <v>-0.726012958</v>
       </c>
       <c r="B35">
-        <v>-0.5223266012435764</v>
+        <v>-0.5223433681975672</v>
       </c>
       <c r="C35">
-        <v>-0.5268234969018348</v>
+        <v>-0.5268248229078718</v>
       </c>
       <c r="D35">
-        <v>-0.5261072205891918</v>
+        <v>-0.4724319446131302</v>
       </c>
       <c r="E35">
         <v>-0.4867956472742713</v>
@@ -5960,13 +5960,13 @@
         <v>-0.087224411</v>
       </c>
       <c r="B36">
-        <v>-0.2804805863039234</v>
+        <v>-0.2805004667910904</v>
       </c>
       <c r="C36">
-        <v>-0.2837682362430864</v>
+        <v>-0.2837694862834435</v>
       </c>
       <c r="D36">
-        <v>-0.2802609677962746</v>
+        <v>-0.2347428873814729</v>
       </c>
       <c r="E36">
         <v>-0.2362630828487144</v>
@@ -6115,13 +6115,13 @@
         <v>-1.025152274</v>
       </c>
       <c r="B37">
-        <v>-0.8407708269063148</v>
+        <v>-0.84077298129848</v>
       </c>
       <c r="C37">
-        <v>-0.8462824426577282</v>
+        <v>-0.8462833887488105</v>
       </c>
       <c r="D37">
-        <v>-0.7779957083175616</v>
+        <v>-0.7742938971925291</v>
       </c>
       <c r="E37">
         <v>-0.7786121284874157</v>
@@ -6270,13 +6270,13 @@
         <v>-1.065636548</v>
       </c>
       <c r="B38">
-        <v>-0.9794248334088542</v>
+        <v>-0.9794284047489921</v>
       </c>
       <c r="C38">
-        <v>-0.9828173205811963</v>
+        <v>-0.982817978832767</v>
       </c>
       <c r="D38">
-        <v>-0.9101150885858361</v>
+        <v>-0.9129862061664156</v>
       </c>
       <c r="E38">
         <v>-0.9190558017832089</v>
@@ -6425,13 +6425,13 @@
         <v>-1.658517568</v>
       </c>
       <c r="B39">
-        <v>-0.965864095007239</v>
+        <v>-0.965893557630726</v>
       </c>
       <c r="C39">
-        <v>-0.9638375154530252</v>
+        <v>-0.9638382604597067</v>
       </c>
       <c r="D39">
-        <v>-0.9766920017340341</v>
+        <v>-0.9235603360693394</v>
       </c>
       <c r="E39">
         <v>-0.9725262410509743</v>
@@ -6580,13 +6580,13 @@
         <v>0.670350201</v>
       </c>
       <c r="B40">
-        <v>0.4305461208469976</v>
+        <v>0.4305412764721883</v>
       </c>
       <c r="C40">
-        <v>0.4330282669203954</v>
+        <v>0.4330284901378834</v>
       </c>
       <c r="D40">
-        <v>0.3675782777101895</v>
+        <v>0.3565454530359997</v>
       </c>
       <c r="E40">
         <v>0.3980811677994213</v>
@@ -6735,13 +6735,13 @@
         <v>0.58174072</v>
       </c>
       <c r="B41">
-        <v>0.4384737317922286</v>
+        <v>0.4384827011077049</v>
       </c>
       <c r="C41">
-        <v>0.440049188385041</v>
+        <v>0.4400497696199236</v>
       </c>
       <c r="D41">
-        <v>0.3815342320155879</v>
+        <v>0.363633755503171</v>
       </c>
       <c r="E41">
         <v>0.4025652945031543</v>
@@ -6890,13 +6890,13 @@
         <v>1.034492187</v>
       </c>
       <c r="B42">
-        <v>0.7439168831944237</v>
+        <v>0.7439284749564883</v>
       </c>
       <c r="C42">
-        <v>0.7475339341024201</v>
+        <v>0.7475349277277213</v>
       </c>
       <c r="D42">
-        <v>0.694685285730103</v>
+        <v>0.6865620980369121</v>
       </c>
       <c r="E42">
         <v>0.7419611196539078</v>
@@ -7045,13 +7045,13 @@
         <v>-0.330510864</v>
       </c>
       <c r="B43">
-        <v>-0.2927627968824179</v>
+        <v>-0.2927720547267318</v>
       </c>
       <c r="C43">
-        <v>-0.2936905594993741</v>
+        <v>-0.2936910406509982</v>
       </c>
       <c r="D43">
-        <v>-0.2987663610011705</v>
+        <v>-0.2595123281824562</v>
       </c>
       <c r="E43">
         <v>-0.2577598561988845</v>
@@ -7200,13 +7200,13 @@
         <v>0.468647097</v>
       </c>
       <c r="B44">
-        <v>0.4501849163040816</v>
+        <v>0.4501620010778543</v>
       </c>
       <c r="C44">
-        <v>0.4515563306841836</v>
+        <v>0.4515557020509616</v>
       </c>
       <c r="D44">
-        <v>0.4086376833630037</v>
+        <v>0.4878362013083558</v>
       </c>
       <c r="E44">
         <v>0.5146134485911829</v>
@@ -7355,13 +7355,13 @@
         <v>1.030934397</v>
       </c>
       <c r="B45">
-        <v>1.536228226692504</v>
+        <v>1.536218400966257</v>
       </c>
       <c r="C45">
-        <v>1.547297299458794</v>
+        <v>1.547298680130978</v>
       </c>
       <c r="D45">
-        <v>1.46087172720247</v>
+        <v>1.516624041475731</v>
       </c>
       <c r="E45">
         <v>1.575542738911798</v>
@@ -7510,13 +7510,13 @@
         <v>1.479112841</v>
       </c>
       <c r="B46">
-        <v>2.011323481884287</v>
+        <v>2.011306577138304</v>
       </c>
       <c r="C46">
-        <v>2.023291222801757</v>
+        <v>2.023292498330865</v>
       </c>
       <c r="D46">
-        <v>1.965164053389734</v>
+        <v>1.983067380264679</v>
       </c>
       <c r="E46">
         <v>2.036947348088175</v>
@@ -7665,13 +7665,13 @@
         <v>1.817472853</v>
       </c>
       <c r="B47">
-        <v>2.310528913826413</v>
+        <v>2.310569831050861</v>
       </c>
       <c r="C47">
-        <v>2.321868074573953</v>
+        <v>2.321871358750775</v>
       </c>
       <c r="D47">
-        <v>2.273673497571897</v>
+        <v>2.231844030310614</v>
       </c>
       <c r="E47">
         <v>2.323401796072039</v>
@@ -7820,13 +7820,13 @@
         <v>0.369717394</v>
       </c>
       <c r="B48">
-        <v>0.7612407325305995</v>
+        <v>0.7612245396457947</v>
       </c>
       <c r="C48">
-        <v>0.7594326356301245</v>
+        <v>0.7594317566287995</v>
       </c>
       <c r="D48">
-        <v>0.7899303565425546</v>
+        <v>0.7976456724133397</v>
       </c>
       <c r="E48">
         <v>0.8084685247024296</v>
@@ -7975,13 +7975,13 @@
         <v>-0.162350195</v>
       </c>
       <c r="B49">
-        <v>-0.153183613312493</v>
+        <v>-0.1531760728330993</v>
       </c>
       <c r="C49">
-        <v>-0.1544286159432335</v>
+        <v>-0.1544285405930947</v>
       </c>
       <c r="D49">
-        <v>-0.07933923095389142</v>
+        <v>-0.1223298087854534</v>
       </c>
       <c r="E49">
         <v>-0.1045715467624194</v>
@@ -8130,13 +8130,13 @@
         <v>-0.729825744</v>
       </c>
       <c r="B50">
-        <v>-1.017972093742876</v>
+        <v>-1.017868558634584</v>
       </c>
       <c r="C50">
-        <v>-1.027052845473563</v>
+        <v>-1.02705052407233</v>
       </c>
       <c r="D50">
-        <v>-0.8440625660524046</v>
+        <v>-0.9120501401731802</v>
       </c>
       <c r="E50">
         <v>-0.8492438876900693</v>
@@ -8285,13 +8285,13 @@
         <v>-0.317430882</v>
       </c>
       <c r="B51">
-        <v>-0.9297925406735787</v>
+        <v>-0.9297040395982694</v>
       </c>
       <c r="C51">
-        <v>-0.9387462999746367</v>
+        <v>-0.9387445077645672</v>
       </c>
       <c r="D51">
-        <v>-0.7848076189344169</v>
+        <v>-0.8215943938769954</v>
       </c>
       <c r="E51">
         <v>-0.7732527101652227</v>
@@ -8440,13 +8440,13 @@
         <v>-0.490640104</v>
       </c>
       <c r="B52">
-        <v>-0.771321547450179</v>
+        <v>-0.771264083994726</v>
       </c>
       <c r="C52">
-        <v>-0.7784381386928263</v>
+        <v>-0.7784371861481648</v>
       </c>
       <c r="D52">
-        <v>-0.6916230826414692</v>
+        <v>-0.6833487390663293</v>
       </c>
       <c r="E52">
         <v>-0.6570897887787781</v>
@@ -8595,13 +8595,13 @@
         <v>-1.100609032</v>
       </c>
       <c r="B53">
-        <v>-1.031365622350668</v>
+        <v>-1.031353378837214</v>
       </c>
       <c r="C53">
-        <v>-1.032602616409764</v>
+        <v>-1.032602372132758</v>
       </c>
       <c r="D53">
-        <v>-0.999340958847082</v>
+        <v>-0.9570418640383132</v>
       </c>
       <c r="E53">
         <v>-0.9799915790149778</v>
@@ -8750,13 +8750,13 @@
         <v>-0.351083172</v>
       </c>
       <c r="B54">
-        <v>-0.2590185840128021</v>
+        <v>-0.2590145337415097</v>
       </c>
       <c r="C54">
-        <v>-0.260254387908525</v>
+        <v>-0.2602544378751043</v>
       </c>
       <c r="D54">
-        <v>-0.2327468793160284</v>
+        <v>-0.2445148508311854</v>
       </c>
       <c r="E54">
         <v>-0.2386157882923513</v>
@@ -8905,13 +8905,13 @@
         <v>0.476992209</v>
       </c>
       <c r="B55">
-        <v>0.8124366730887503</v>
+        <v>0.8124190163024217</v>
       </c>
       <c r="C55">
-        <v>0.8113999684235355</v>
+        <v>0.8113991583145973</v>
       </c>
       <c r="D55">
-        <v>0.8353220129112697</v>
+        <v>0.8299970154939432</v>
       </c>
       <c r="E55">
         <v>0.8338822903082179</v>
@@ -9060,13 +9060,13 @@
         <v>1.269210822</v>
       </c>
       <c r="B56">
-        <v>1.535035751350583</v>
+        <v>1.535032766925075</v>
       </c>
       <c r="C56">
-        <v>1.539032579526507</v>
+        <v>1.539033092384354</v>
       </c>
       <c r="D56">
-        <v>1.506647720856175</v>
+        <v>1.539593253794734</v>
       </c>
       <c r="E56">
         <v>1.565072916176445</v>
@@ -9215,13 +9215,13 @@
         <v>1.68335771</v>
       </c>
       <c r="B57">
-        <v>1.768202062707016</v>
+        <v>1.768209953812953</v>
       </c>
       <c r="C57">
-        <v>1.7726460586303</v>
+        <v>1.772647045826215</v>
       </c>
       <c r="D57">
-        <v>1.751734796297513</v>
+        <v>1.739075742059519</v>
       </c>
       <c r="E57">
         <v>1.774343170000465</v>
@@ -9370,13 +9370,13 @@
         <v>1.248614285</v>
       </c>
       <c r="B58">
-        <v>1.300804319486359</v>
+        <v>1.300814299762358</v>
       </c>
       <c r="C58">
-        <v>1.303990809360168</v>
+        <v>1.303991673442658</v>
       </c>
       <c r="D58">
-        <v>1.286290657292309</v>
+        <v>1.279617673882483</v>
       </c>
       <c r="E58">
         <v>1.331791127723608</v>
@@ -9525,13 +9525,13 @@
         <v>0.747520063</v>
       </c>
       <c r="B59">
-        <v>0.6677231693465919</v>
+        <v>0.6676986317920411</v>
       </c>
       <c r="C59">
-        <v>0.6683011999164623</v>
+        <v>0.6683003934153463</v>
       </c>
       <c r="D59">
-        <v>0.6703142208502869</v>
+        <v>0.6927253346331953</v>
       </c>
       <c r="E59">
         <v>0.7100825289634388</v>
@@ -9680,13 +9680,13 @@
         <v>-0.631971431</v>
       </c>
       <c r="B60">
-        <v>-0.5963849406987936</v>
+        <v>-0.5963669978925819</v>
       </c>
       <c r="C60">
-        <v>-0.6068465063886934</v>
+        <v>-0.6068475074511892</v>
       </c>
       <c r="D60">
-        <v>-0.4514063564313019</v>
+        <v>-0.4730960472378832</v>
       </c>
       <c r="E60">
         <v>-0.4553264705617927</v>
@@ -9835,13 +9835,13 @@
         <v>-0.10813702</v>
       </c>
       <c r="B61">
-        <v>0.1187569070017094</v>
+        <v>0.1187477252998507</v>
       </c>
       <c r="C61">
-        <v>0.1158281729512793</v>
+        <v>0.1158273726066818</v>
       </c>
       <c r="D61">
-        <v>0.1501702007711475</v>
+        <v>0.16536369568358</v>
       </c>
       <c r="E61">
         <v>0.1750849564400484</v>
@@ -9990,13 +9990,13 @@
         <v>0.399434913</v>
       </c>
       <c r="B62">
-        <v>0.6045285856184385</v>
+        <v>0.6045191645202093</v>
       </c>
       <c r="C62">
-        <v>0.6020206134513059</v>
+        <v>0.6020198714292474</v>
       </c>
       <c r="D62">
-        <v>0.6417161762143768</v>
+        <v>0.6534816923704184</v>
       </c>
       <c r="E62">
         <v>0.6729083122459515</v>
@@ -10145,13 +10145,13 @@
         <v>0.598079881</v>
       </c>
       <c r="B63">
-        <v>0.8013354677294495</v>
+        <v>0.8013344545535237</v>
       </c>
       <c r="C63">
-        <v>0.8012380867798204</v>
+        <v>0.8012380255755038</v>
       </c>
       <c r="D63">
-        <v>0.7958457843914581</v>
+        <v>0.8538728142097004</v>
       </c>
       <c r="E63">
         <v>0.9093348193251574</v>
@@ -10300,13 +10300,13 @@
         <v>-0.364643642</v>
       </c>
       <c r="B64">
-        <v>-0.2395549608988065</v>
+        <v>-0.2395688699876257</v>
       </c>
       <c r="C64">
-        <v>-0.2499309776182478</v>
+        <v>-0.2499331220494528</v>
       </c>
       <c r="D64">
-        <v>-0.1500778384641069</v>
+        <v>-0.1249206723159704</v>
       </c>
       <c r="E64">
         <v>-0.1025389654169168</v>
@@ -10455,13 +10455,13 @@
         <v>2.015990384</v>
       </c>
       <c r="B65">
-        <v>1.845690045373198</v>
+        <v>1.845682786175645</v>
       </c>
       <c r="C65">
-        <v>1.874142083396006</v>
+        <v>1.87414629135737</v>
       </c>
       <c r="D65">
-        <v>1.648910366168609</v>
+        <v>1.779278652660727</v>
       </c>
       <c r="E65">
         <v>1.893490910517116</v>
@@ -10610,13 +10610,13 @@
         <v>2.364869298</v>
       </c>
       <c r="B66">
-        <v>1.920526356728091</v>
+        <v>1.920512165348742</v>
       </c>
       <c r="C66">
-        <v>1.95091603793431</v>
+        <v>1.950920299504793</v>
       </c>
       <c r="D66">
-        <v>1.716029805528316</v>
+        <v>1.854819769337541</v>
       </c>
       <c r="E66">
         <v>1.967153518964317</v>
@@ -10765,13 +10765,13 @@
         <v>2.827580557</v>
       </c>
       <c r="B67">
-        <v>2.061332737555271</v>
+        <v>2.061337701428514</v>
       </c>
       <c r="C67">
-        <v>2.083754823948546</v>
+        <v>2.083758524473839</v>
       </c>
       <c r="D67">
-        <v>1.922562771045877</v>
+        <v>2.051578533473716</v>
       </c>
       <c r="E67">
         <v>2.17166528858675</v>
@@ -10920,13 +10920,13 @@
         <v>0.626809444</v>
       </c>
       <c r="B68">
-        <v>0.3734223061877843</v>
+        <v>0.3734012231571035</v>
       </c>
       <c r="C68">
-        <v>0.3701755950076573</v>
+        <v>0.3701743144037266</v>
       </c>
       <c r="D68">
-        <v>0.4392757159605481</v>
+        <v>0.4454906589929918</v>
       </c>
       <c r="E68">
         <v>0.4567952633823916</v>
@@ -11075,13 +11075,13 @@
         <v>0.49739888</v>
       </c>
       <c r="B69">
-        <v>0.3032249763361597</v>
+        <v>0.3032124098494262</v>
       </c>
       <c r="C69">
-        <v>0.3007292918667642</v>
+        <v>0.3007284407567988</v>
       </c>
       <c r="D69">
-        <v>0.3580994507066159</v>
+        <v>0.3694740760795699</v>
       </c>
       <c r="E69">
         <v>0.3925549833284624</v>
@@ -11230,13 +11230,13 @@
         <v>0.325808278</v>
       </c>
       <c r="B70">
-        <v>-0.001164525594077152</v>
+        <v>-0.001165093055894625</v>
       </c>
       <c r="C70">
-        <v>-0.0005593217556707237</v>
+        <v>-0.0005592454307551467</v>
       </c>
       <c r="D70">
-        <v>-0.005269142493171104</v>
+        <v>0.0101723630048781</v>
       </c>
       <c r="E70">
         <v>0.02154834344714412</v>
@@ -11385,13 +11385,13 @@
         <v>0.365489314</v>
       </c>
       <c r="B71">
-        <v>0.104258191586519</v>
+        <v>0.1042561446174035</v>
       </c>
       <c r="C71">
-        <v>0.1047374773606126</v>
+        <v>0.1047374748405176</v>
       </c>
       <c r="D71">
-        <v>0.03171979318504813</v>
+        <v>0.08927208167274739</v>
       </c>
       <c r="E71">
         <v>0.1036304389848083</v>
@@ -11540,13 +11540,13 @@
         <v>1.026844468</v>
       </c>
       <c r="B72">
-        <v>0.6651546082162668</v>
+        <v>0.6651363071153663</v>
       </c>
       <c r="C72">
-        <v>0.6684369429289918</v>
+        <v>0.668436787848134</v>
       </c>
       <c r="D72">
-        <v>0.6160636432495198</v>
+        <v>0.6796921035300154</v>
       </c>
       <c r="E72">
         <v>0.7242438212059484</v>
@@ -11695,13 +11695,13 @@
         <v>0.699083059</v>
       </c>
       <c r="B73">
-        <v>0.5348130577827911</v>
+        <v>0.5347588763191842</v>
       </c>
       <c r="C73">
-        <v>0.5369933501745883</v>
+        <v>0.5369917160963983</v>
       </c>
       <c r="D73">
-        <v>0.5529789751392969</v>
+        <v>0.5923188813760072</v>
       </c>
       <c r="E73">
         <v>0.5978441830932255</v>
@@ -11850,13 +11850,13 @@
         <v>0.662278742</v>
       </c>
       <c r="B74">
-        <v>0.4625480394580833</v>
+        <v>0.4624973123757706</v>
       </c>
       <c r="C74">
-        <v>0.4540976593711782</v>
+        <v>0.454094467952856</v>
       </c>
       <c r="D74">
-        <v>0.5707188080243175</v>
+        <v>0.61429912456116</v>
       </c>
       <c r="E74">
         <v>0.5811528443540589</v>
@@ -12005,13 +12005,13 @@
         <v>0.456505507</v>
       </c>
       <c r="B75">
-        <v>0.2199839562479298</v>
+        <v>0.2199656126408944</v>
       </c>
       <c r="C75">
-        <v>0.213761822190514</v>
+        <v>0.2137601650146095</v>
       </c>
       <c r="D75">
-        <v>0.3190193550703218</v>
+        <v>0.3209802519219707</v>
       </c>
       <c r="E75">
         <v>0.3195529768141484</v>
@@ -12160,13 +12160,13 @@
         <v>-0.181605646</v>
       </c>
       <c r="B76">
-        <v>-0.2469291709818364</v>
+        <v>-0.2469453759127107</v>
       </c>
       <c r="C76">
-        <v>-0.2491020199979107</v>
+        <v>-0.2491029458963623</v>
       </c>
       <c r="D76">
-        <v>-0.1751077145593027</v>
+        <v>-0.1663824041101921</v>
       </c>
       <c r="E76">
         <v>-0.1483184561294491</v>
@@ -12315,13 +12315,13 @@
         <v>0.647849754</v>
       </c>
       <c r="B77">
-        <v>0.3787171126330746</v>
+        <v>0.3787026712336135</v>
       </c>
       <c r="C77">
-        <v>0.3764743773265143</v>
+        <v>0.3764734943460722</v>
       </c>
       <c r="D77">
-        <v>0.420215112920409</v>
+        <v>0.4145450372452133</v>
       </c>
       <c r="E77">
         <v>0.4234044409195226</v>
@@ -12470,13 +12470,13 @@
         <v>-0.151031448</v>
       </c>
       <c r="B78">
-        <v>-0.4748568712887856</v>
+        <v>-0.4748588796104043</v>
       </c>
       <c r="C78">
-        <v>-0.4777238982363993</v>
+        <v>-0.4777244278689085</v>
       </c>
       <c r="D78">
-        <v>-0.4468838386260297</v>
+        <v>-0.4399151260063486</v>
       </c>
       <c r="E78">
         <v>-0.4414434808002956</v>
@@ -12625,13 +12625,13 @@
         <v>0.204622557</v>
       </c>
       <c r="B79">
-        <v>-0.06171849287718038</v>
+        <v>-0.0617363865849993</v>
       </c>
       <c r="C79">
-        <v>-0.06409689154359802</v>
+        <v>-0.06409792490751764</v>
       </c>
       <c r="D79">
-        <v>-0.04715236903575099</v>
+        <v>-0.0181882975457124</v>
       </c>
       <c r="E79">
         <v>-0.01667657550318365</v>
@@ -12780,13 +12780,13 @@
         <v>0.6727765610000001</v>
       </c>
       <c r="B80">
-        <v>0.5646376247833796</v>
+        <v>0.5646456378737286</v>
       </c>
       <c r="C80">
-        <v>0.564830201750692</v>
+        <v>0.5648305170576491</v>
       </c>
       <c r="D80">
-        <v>0.5527153831940254</v>
+        <v>0.5931989932732928</v>
       </c>
       <c r="E80">
         <v>0.6457103516795499</v>
@@ -12935,13 +12935,13 @@
         <v>1.409854459</v>
       </c>
       <c r="B81">
-        <v>1.265533938071145</v>
+        <v>1.2655733708706</v>
       </c>
       <c r="C81">
-        <v>1.270713397468785</v>
+        <v>1.270715639319848</v>
       </c>
       <c r="D81">
-        <v>1.229474353530991</v>
+        <v>1.263476382896925</v>
       </c>
       <c r="E81">
         <v>1.365571748645679</v>
@@ -13090,13 +13090,13 @@
         <v>1.436857019</v>
       </c>
       <c r="B82">
-        <v>1.236401996390647</v>
+        <v>1.236482403762168</v>
       </c>
       <c r="C82">
-        <v>1.243342788869416</v>
+        <v>1.243346806271854</v>
       </c>
       <c r="D82">
-        <v>1.185572580290388</v>
+        <v>1.173714557945489</v>
       </c>
       <c r="E82">
         <v>1.319156507054816</v>
@@ -13245,13 +13245,13 @@
         <v>-0.078187413</v>
       </c>
       <c r="B83">
-        <v>-0.4037782677542</v>
+        <v>-0.4037884599754032</v>
       </c>
       <c r="C83">
-        <v>-0.4059042784364654</v>
+        <v>-0.4059049871655078</v>
       </c>
       <c r="D83">
-        <v>-0.4584724218177756</v>
+        <v>-0.3789972360851608</v>
       </c>
       <c r="E83">
         <v>-0.3731574575515246</v>
@@ -13400,13 +13400,13 @@
         <v>-0.089819775</v>
       </c>
       <c r="B84">
-        <v>-0.2138756516395905</v>
+        <v>-0.2138843626844999</v>
       </c>
       <c r="C84">
-        <v>-0.2146274031391053</v>
+        <v>-0.2146278456680336</v>
       </c>
       <c r="D84">
-        <v>-0.303142918344365</v>
+        <v>-0.1980861017121722</v>
       </c>
       <c r="E84">
         <v>-0.1821774903169781</v>
@@ -13555,13 +13555,13 @@
         <v>-0.951749297</v>
       </c>
       <c r="B85">
-        <v>-0.9389776956732551</v>
+        <v>-0.9390277405706227</v>
       </c>
       <c r="C85">
-        <v>-0.946185297268647</v>
+        <v>-0.9461882616400912</v>
       </c>
       <c r="D85">
-        <v>-1.033153285366671</v>
+        <v>-0.8742571817794368</v>
       </c>
       <c r="E85">
         <v>-0.9353033243234363</v>
@@ -13710,13 +13710,13 @@
         <v>-0.611776729</v>
       </c>
       <c r="B86">
-        <v>-0.3864321167410718</v>
+        <v>-0.3864613507844019</v>
       </c>
       <c r="C86">
-        <v>-0.3871073845097539</v>
+        <v>-0.3871085662200973</v>
       </c>
       <c r="D86">
-        <v>-0.5081539281815128</v>
+        <v>-0.3673567084330077</v>
       </c>
       <c r="E86">
         <v>-0.3754016107673065</v>
@@ -13865,13 +13865,13 @@
         <v>-1.503113365</v>
       </c>
       <c r="B87">
-        <v>-1.467045631792302</v>
+        <v>-1.467104672763627</v>
       </c>
       <c r="C87">
-        <v>-1.474654220474025</v>
+        <v>-1.474657574608631</v>
       </c>
       <c r="D87">
-        <v>-1.554954879688017</v>
+        <v>-1.42205712259542</v>
       </c>
       <c r="E87">
         <v>-1.506801448119205</v>
@@ -14020,13 +14020,13 @@
         <v>-0.95035541</v>
       </c>
       <c r="B88">
-        <v>-1.236205922423558</v>
+        <v>-1.236253105853454</v>
       </c>
       <c r="C88">
-        <v>-1.238916340734665</v>
+        <v>-1.238918496674086</v>
       </c>
       <c r="D88">
-        <v>-1.334936057339792</v>
+        <v>-1.22165054407889</v>
       </c>
       <c r="E88">
         <v>-1.275821990629804</v>
@@ -14175,13 +14175,13 @@
         <v>-0.869041164</v>
       </c>
       <c r="B89">
-        <v>-0.7049281901878823</v>
+        <v>-0.7049574243414113</v>
       </c>
       <c r="C89">
-        <v>-0.7083791336041763</v>
+        <v>-0.7083807476936265</v>
       </c>
       <c r="D89">
-        <v>-0.7723474076276681</v>
+        <v>-0.674868892774243</v>
       </c>
       <c r="E89">
         <v>-0.7027556308689629</v>
@@ -14330,13 +14330,13 @@
         <v>-0.621619324</v>
       </c>
       <c r="B90">
-        <v>-0.5895570486052821</v>
+        <v>-0.5895787106144875</v>
       </c>
       <c r="C90">
-        <v>-0.5920815786528763</v>
+        <v>-0.5920827692693196</v>
       </c>
       <c r="D90">
-        <v>-0.6595922015531603</v>
+        <v>-0.567797088944288</v>
       </c>
       <c r="E90">
         <v>-0.5860668735251514</v>
@@ -14485,13 +14485,13 @@
         <v>0.820733698</v>
       </c>
       <c r="B91">
-        <v>0.3536474857669443</v>
+        <v>0.3536712038194413</v>
       </c>
       <c r="C91">
-        <v>0.3561506770079455</v>
+        <v>0.3561519287984527</v>
       </c>
       <c r="D91">
-        <v>0.2906178449401929</v>
+        <v>0.3343065007524155</v>
       </c>
       <c r="E91">
         <v>0.4090397769401525</v>
@@ -14640,13 +14640,13 @@
         <v>1.157975086</v>
       </c>
       <c r="B92">
-        <v>0.664873006068898</v>
+        <v>0.6649269028577913</v>
       </c>
       <c r="C92">
-        <v>0.6697816190430116</v>
+        <v>0.6697843491716178</v>
       </c>
       <c r="D92">
-        <v>0.6088681346173241</v>
+        <v>0.6334787289297257</v>
       </c>
       <c r="E92">
         <v>0.7431812467201427</v>
@@ -14795,13 +14795,13 @@
         <v>1.16180901</v>
       </c>
       <c r="B93">
-        <v>0.694450259038019</v>
+        <v>0.6945060605347404</v>
       </c>
       <c r="C93">
-        <v>0.6994304555093348</v>
+        <v>0.6994332666319387</v>
       </c>
       <c r="D93">
-        <v>0.6365713232290123</v>
+        <v>0.6617965738768252</v>
       </c>
       <c r="E93">
         <v>0.7757540999443431</v>
@@ -14950,13 +14950,13 @@
         <v>0.673844651</v>
       </c>
       <c r="B94">
-        <v>0.4383375818715192</v>
+        <v>0.4383683783616636</v>
       </c>
       <c r="C94">
-        <v>0.4411604863866693</v>
+        <v>0.4411620476921201</v>
       </c>
       <c r="D94">
-        <v>0.3801998115096404</v>
+        <v>0.4197439178456399</v>
       </c>
       <c r="E94">
         <v>0.4904464890037158</v>
@@ -15105,13 +15105,13 @@
         <v>0.576154411</v>
       </c>
       <c r="B95">
-        <v>0.2691949399445147</v>
+        <v>0.2692167172157132</v>
       </c>
       <c r="C95">
-        <v>0.2716180401973339</v>
+        <v>0.2716192085763252</v>
       </c>
       <c r="D95">
-        <v>0.1972061654329641</v>
+        <v>0.2570715929473164</v>
       </c>
       <c r="E95">
         <v>0.3211965735638744</v>
@@ -15260,13 +15260,13 @@
         <v>-0.247999935</v>
       </c>
       <c r="B96">
-        <v>-0.3690910775599969</v>
+        <v>-0.3691072552512382</v>
       </c>
       <c r="C96">
-        <v>-0.37112792601294</v>
+        <v>-0.371128842214658</v>
       </c>
       <c r="D96">
-        <v>-0.4541750954081176</v>
+        <v>-0.3434625935348123</v>
       </c>
       <c r="E96">
         <v>-0.3422003609022013</v>
@@ -15415,13 +15415,13 @@
         <v>-1.022406207</v>
       </c>
       <c r="B97">
-        <v>-1.150515800170633</v>
+        <v>-1.150573764858648</v>
       </c>
       <c r="C97">
-        <v>-1.15971500718763</v>
+        <v>-1.159718572537297</v>
       </c>
       <c r="D97">
-        <v>-1.239290550441346</v>
+        <v>-1.073329966554798</v>
       </c>
       <c r="E97">
         <v>-1.154753808967562</v>
@@ -15570,13 +15570,13 @@
         <v>-0.898568511</v>
       </c>
       <c r="B98">
-        <v>-0.7694231060091575</v>
+        <v>-0.7694701123210006</v>
       </c>
       <c r="C98">
-        <v>-0.7733505819570623</v>
+        <v>-0.7733529222504931</v>
       </c>
       <c r="D98">
-        <v>-0.8885239274310882</v>
+        <v>-0.7293769206212228</v>
       </c>
       <c r="E98">
         <v>-0.7744419500363293</v>
@@ -15725,13 +15725,13 @@
         <v>-0.35746994</v>
       </c>
       <c r="B99">
-        <v>-0.1818347825207592</v>
+        <v>-0.18185448899295</v>
       </c>
       <c r="C99">
-        <v>-0.1812087816416151</v>
+        <v>-0.1812094113594246</v>
       </c>
       <c r="D99">
-        <v>-0.2813284548359352</v>
+        <v>-0.171284105685387</v>
       </c>
       <c r="E99">
         <v>-0.163477944437955</v>
@@ -15880,13 +15880,13 @@
         <v>-0.676801503</v>
       </c>
       <c r="B100">
-        <v>0.0562021063142438</v>
+        <v>0.05619543246417694</v>
       </c>
       <c r="C100">
-        <v>0.05910744780349707</v>
+        <v>0.05910764968773687</v>
       </c>
       <c r="D100">
-        <v>-0.03736286155162873</v>
+        <v>0.05272021467379068</v>
       </c>
       <c r="E100">
         <v>0.07879661127245101</v>
@@ -16035,13 +16035,13 @@
         <v>-0.963128334</v>
       </c>
       <c r="B101">
-        <v>-0.1958995340323893</v>
+        <v>-0.1959122392427402</v>
       </c>
       <c r="C101">
-        <v>-0.196303018451814</v>
+        <v>-0.1963035525883915</v>
       </c>
       <c r="D101">
-        <v>-0.2677689426923242</v>
+        <v>-0.1832809578220456</v>
       </c>
       <c r="E101">
         <v>-0.1747910125323194</v>
@@ -16190,13 +16190,13 @@
         <v>-1.089650457</v>
       </c>
       <c r="B102">
-        <v>-0.4567344757555661</v>
+        <v>-0.4567510503157758</v>
       </c>
       <c r="C102">
-        <v>-0.4584483432991762</v>
+        <v>-0.4584492218146436</v>
       </c>
       <c r="D102">
-        <v>-0.5284566471736616</v>
+        <v>-0.4400199044845384</v>
       </c>
       <c r="E102">
         <v>-0.4473565386629113</v>
@@ -16345,13 +16345,13 @@
         <v>-1.754660522</v>
       </c>
       <c r="B103">
-        <v>-1.044496933780474</v>
+        <v>-1.044532443229703</v>
       </c>
       <c r="C103">
-        <v>-1.049713347025893</v>
+        <v>-1.049715459528176</v>
       </c>
       <c r="D103">
-        <v>-1.092071546848215</v>
+        <v>-1.000109530368132</v>
       </c>
       <c r="E103">
         <v>-1.056496373418385</v>
@@ -16500,13 +16500,13 @@
         <v>-1.724252511</v>
       </c>
       <c r="B104">
-        <v>-1.619005687064391</v>
+        <v>-1.619054171189756</v>
       </c>
       <c r="C104">
-        <v>-1.627826142351089</v>
+        <v>-1.627829286687143</v>
       </c>
       <c r="D104">
-        <v>-1.636323370982223</v>
+        <v>-1.542235767962972</v>
       </c>
       <c r="E104">
         <v>-1.63902808121775</v>
@@ -16655,13 +16655,13 @@
         <v>-1.868408762</v>
       </c>
       <c r="B105">
-        <v>-1.834791813889699</v>
+        <v>-1.834844117922932</v>
       </c>
       <c r="C105">
-        <v>-1.845233823218336</v>
+        <v>-1.845237354973015</v>
       </c>
       <c r="D105">
-        <v>-1.836770622321496</v>
+        <v>-1.757788352738636</v>
       </c>
       <c r="E105">
         <v>-1.860984506800269</v>
@@ -16810,13 +16810,13 @@
         <v>-0.07703964000000001</v>
       </c>
       <c r="B106">
-        <v>-0.4436347059630236</v>
+        <v>-0.443645532963491</v>
       </c>
       <c r="C106">
-        <v>-0.4453663324856138</v>
+        <v>-0.4453670006142907</v>
       </c>
       <c r="D106">
-        <v>-0.4954029359605679</v>
+        <v>-0.424487835869673</v>
       </c>
       <c r="E106">
         <v>-0.4254629945396561</v>
@@ -16965,13 +16965,13 @@
         <v>-0.058419279</v>
       </c>
       <c r="B107">
-        <v>-0.5378667331521324</v>
+        <v>-0.5378818691951356</v>
       </c>
       <c r="C107">
-        <v>-0.5408718741574509</v>
+        <v>-0.5408729002533063</v>
       </c>
       <c r="D107">
-        <v>-0.5877786661402745</v>
+        <v>-0.5070837382752234</v>
       </c>
       <c r="E107">
         <v>-0.5113495744568963</v>
@@ -17120,13 +17120,13 @@
         <v>1.204247991</v>
       </c>
       <c r="B108">
-        <v>0.7393925030992651</v>
+        <v>0.7394437688395489</v>
       </c>
       <c r="C108">
-        <v>0.7466731785555545</v>
+        <v>0.7466761845048542</v>
       </c>
       <c r="D108">
-        <v>0.6359152646379708</v>
+        <v>0.6867570028802442</v>
       </c>
       <c r="E108">
         <v>0.8025522505436363</v>
@@ -17275,13 +17275,13 @@
         <v>1.183657404</v>
       </c>
       <c r="B109">
-        <v>1.368461556932946</v>
+        <v>1.368551265189347</v>
       </c>
       <c r="C109">
-        <v>1.38167458652694</v>
+        <v>1.381679927231376</v>
       </c>
       <c r="D109">
-        <v>1.261103878422947</v>
+        <v>1.276932928758565</v>
       </c>
       <c r="E109">
         <v>1.458298191742879</v>
@@ -17430,13 +17430,13 @@
         <v>1.235714724</v>
       </c>
       <c r="B110">
-        <v>1.627227718091118</v>
+        <v>1.627321970059239</v>
       </c>
       <c r="C110">
-        <v>1.641818281908231</v>
+        <v>1.641824007349157</v>
       </c>
       <c r="D110">
-        <v>1.527877060375047</v>
+        <v>1.526441427860221</v>
       </c>
       <c r="E110">
         <v>1.715732504899901</v>
@@ -17585,13 +17585,13 @@
         <v>1.193822144</v>
       </c>
       <c r="B111">
-        <v>1.090750736704954</v>
+        <v>1.090787105962215</v>
       </c>
       <c r="C111">
-        <v>1.100510729710486</v>
+        <v>1.100513581664326</v>
       </c>
       <c r="D111">
-        <v>0.9919870228372858</v>
+        <v>1.046215796981729</v>
       </c>
       <c r="E111">
         <v>1.155544156939411</v>
@@ -17740,13 +17740,13 @@
         <v>1.680661976</v>
       </c>
       <c r="B112">
-        <v>1.574754333005465</v>
+        <v>1.574819872983564</v>
       </c>
       <c r="C112">
-        <v>1.586334095227136</v>
+        <v>1.586338293278284</v>
       </c>
       <c r="D112">
-        <v>1.488785961941013</v>
+        <v>1.522786504794478</v>
       </c>
       <c r="E112">
         <v>1.654859315970757</v>
@@ -17895,13 +17895,13 @@
         <v>1.735508276</v>
       </c>
       <c r="B113">
-        <v>1.780964080393077</v>
+        <v>1.781041104747873</v>
       </c>
       <c r="C113">
-        <v>1.793296964985112</v>
+        <v>1.793301701854021</v>
       </c>
       <c r="D113">
-        <v>1.700225552772392</v>
+        <v>1.71647123119228</v>
       </c>
       <c r="E113">
         <v>1.859005589292307</v>
@@ -18050,13 +18050,13 @@
         <v>1.120645867</v>
       </c>
       <c r="B114">
-        <v>1.684686279227985</v>
+        <v>1.684777128117928</v>
       </c>
       <c r="C114">
-        <v>1.69765776790986</v>
+        <v>1.697663108457934</v>
       </c>
       <c r="D114">
-        <v>1.599736599429822</v>
+        <v>1.613135263558728</v>
       </c>
       <c r="E114">
         <v>1.782031844751564</v>
@@ -18205,13 +18205,13 @@
         <v>0.220765723</v>
       </c>
       <c r="B115">
-        <v>0.5387257678578808</v>
+        <v>0.5387595919920105</v>
       </c>
       <c r="C115">
-        <v>0.5424116919542936</v>
+        <v>0.5424134974403619</v>
       </c>
       <c r="D115">
-        <v>0.4745653242050726</v>
+        <v>0.5202063818061701</v>
       </c>
       <c r="E115">
         <v>0.6031748289410516</v>
@@ -18360,13 +18360,13 @@
         <v>0.291028273</v>
       </c>
       <c r="B116">
-        <v>0.4475809715440985</v>
+        <v>0.4476202297677032</v>
       </c>
       <c r="C116">
-        <v>0.4510196838903448</v>
+        <v>0.4510216504485702</v>
       </c>
       <c r="D116">
-        <v>0.3933699753503179</v>
+        <v>0.4210853066273558</v>
       </c>
       <c r="E116">
         <v>0.5158850687619593</v>
@@ -18515,13 +18515,13 @@
         <v>0.583045483</v>
       </c>
       <c r="B117">
-        <v>1.180203351087814</v>
+        <v>1.180293752106131</v>
       </c>
       <c r="C117">
-        <v>1.188470725474844</v>
+        <v>1.188475313119181</v>
       </c>
       <c r="D117">
-        <v>1.12147906298362</v>
+        <v>1.118785620356764</v>
       </c>
       <c r="E117">
         <v>1.282828612277707</v>
@@ -18670,13 +18670,13 @@
         <v>1.459657324</v>
       </c>
       <c r="B118">
-        <v>1.56141019032487</v>
+        <v>1.561513918607109</v>
       </c>
       <c r="C118">
-        <v>1.570061244378943</v>
+        <v>1.570066381825396</v>
       </c>
       <c r="D118">
-        <v>1.516707120317593</v>
+        <v>1.479242243470835</v>
       </c>
       <c r="E118">
         <v>1.656712541644859</v>
@@ -18825,13 +18825,13 @@
         <v>0.957846139</v>
       </c>
       <c r="B119">
-        <v>1.375582361165294</v>
+        <v>1.375681633959907</v>
       </c>
       <c r="C119">
-        <v>1.386222609512009</v>
+        <v>1.3862278951677</v>
       </c>
       <c r="D119">
-        <v>1.29650509873295</v>
+        <v>1.286773608402883</v>
       </c>
       <c r="E119">
         <v>1.466184117604583</v>
@@ -18980,13 +18980,13 @@
         <v>1.102629823</v>
       </c>
       <c r="B120">
-        <v>0.5398473063107589</v>
+        <v>0.539884032924197</v>
       </c>
       <c r="C120">
-        <v>0.5454207393111621</v>
+        <v>0.5454229466388366</v>
       </c>
       <c r="D120">
-        <v>0.4377774224929837</v>
+        <v>0.5032429810943401</v>
       </c>
       <c r="E120">
         <v>0.5961306372978316</v>
@@ -19135,13 +19135,13 @@
         <v>1.64061108</v>
       </c>
       <c r="B121">
-        <v>1.496343966959293</v>
+        <v>1.496444204663342</v>
       </c>
       <c r="C121">
-        <v>1.51064474390689</v>
+        <v>1.510650639873675</v>
       </c>
       <c r="D121">
-        <v>1.39032938957134</v>
+        <v>1.395434715507134</v>
       </c>
       <c r="E121">
         <v>1.591022008741624</v>
@@ -19290,13 +19290,13 @@
         <v>1.886908677</v>
       </c>
       <c r="B122">
-        <v>1.560871693630121</v>
+        <v>1.560961112722749</v>
       </c>
       <c r="C122">
-        <v>1.575004020875103</v>
+        <v>1.575009497707987</v>
       </c>
       <c r="D122">
-        <v>1.459932091778706</v>
+        <v>1.464135632076789</v>
       </c>
       <c r="E122">
         <v>1.646986117229716</v>
@@ -19445,13 +19445,13 @@
         <v>1.733513011</v>
       </c>
       <c r="B123">
-        <v>1.907215539955664</v>
+        <v>1.907293521280798</v>
       </c>
       <c r="C123">
-        <v>1.923370071101773</v>
+        <v>1.923375448115948</v>
       </c>
       <c r="D123">
-        <v>1.810105628801467</v>
+        <v>1.829036040630017</v>
       </c>
       <c r="E123">
         <v>1.99776697262737</v>
@@ -19600,13 +19600,13 @@
         <v>-0.0362457</v>
       </c>
       <c r="B124">
-        <v>0.4632205288421109</v>
+        <v>0.4632309137377006</v>
       </c>
       <c r="C124">
-        <v>0.4683287295179174</v>
+        <v>0.4683298994128354</v>
       </c>
       <c r="D124">
-        <v>0.3715140407155002</v>
+        <v>0.4513091928072399</v>
       </c>
       <c r="E124">
         <v>0.5022814527950973</v>
@@ -19755,13 +19755,13 @@
         <v>0.430903942</v>
       </c>
       <c r="B125">
-        <v>0.9118148472840695</v>
+        <v>0.9118484054313654</v>
       </c>
       <c r="C125">
-        <v>0.9183183210747318</v>
+        <v>0.9183205576024523</v>
       </c>
       <c r="D125">
-        <v>0.835360797007914</v>
+        <v>0.8794073218665109</v>
       </c>
       <c r="E125">
         <v>0.9674585554698624</v>
@@ -19910,13 +19910,13 @@
         <v>-0.243546309</v>
       </c>
       <c r="B126">
-        <v>0.007024946916238711</v>
+        <v>0.007027815039456034</v>
       </c>
       <c r="C126">
-        <v>0.008191612769363553</v>
+        <v>0.008191893578932179</v>
       </c>
       <c r="D126">
-        <v>-0.06921074979830227</v>
+        <v>0.004853751587078405</v>
       </c>
       <c r="E126">
         <v>0.03651821484523803</v>
@@ -20065,13 +20065,13 @@
         <v>-0.931687809</v>
       </c>
       <c r="B127">
-        <v>-0.9103569272867089</v>
+        <v>-0.9103881609016981</v>
       </c>
       <c r="C127">
-        <v>-0.914897862161636</v>
+        <v>-0.9148997137269405</v>
       </c>
       <c r="D127">
-        <v>-0.9603578539119748</v>
+        <v>-0.8703212821761087</v>
       </c>
       <c r="E127">
         <v>-0.9159331832367317</v>
@@ -20220,13 +20220,13 @@
         <v>0.141116369</v>
       </c>
       <c r="B128">
-        <v>0.1392594461217826</v>
+        <v>0.1392796483823767</v>
       </c>
       <c r="C128">
-        <v>0.1406941281885808</v>
+        <v>0.1406950867354904</v>
       </c>
       <c r="D128">
-        <v>0.08779793934231642</v>
+        <v>0.1362969771422818</v>
       </c>
       <c r="E128">
         <v>0.1936460260038731</v>
@@ -20375,13 +20375,13 @@
         <v>0.56391939</v>
       </c>
       <c r="B129">
-        <v>0.5836473615931181</v>
+        <v>0.5836958546547034</v>
       </c>
       <c r="C129">
-        <v>0.5879043103145309</v>
+        <v>0.5879067417640443</v>
       </c>
       <c r="D129">
-        <v>0.5262622305326558</v>
+        <v>0.5575654956863444</v>
       </c>
       <c r="E129">
         <v>0.6601394581993907</v>
@@ -20530,13 +20530,13 @@
         <v>1.941603295</v>
       </c>
       <c r="B130">
-        <v>1.829077187961318</v>
+        <v>1.829201450293905</v>
       </c>
       <c r="C130">
-        <v>1.839158869444327</v>
+        <v>1.839164981594746</v>
       </c>
       <c r="D130">
-        <v>1.790706094897346</v>
+        <v>1.730163511857266</v>
       </c>
       <c r="E130">
         <v>1.934762217392236</v>
@@ -20685,13 +20685,13 @@
         <v>0.686945786</v>
       </c>
       <c r="B131">
-        <v>0.837799885399353</v>
+        <v>0.8378577085670993</v>
       </c>
       <c r="C131">
-        <v>0.8443111580348119</v>
+        <v>0.8443142824533979</v>
       </c>
       <c r="D131">
-        <v>0.7590797527892034</v>
+        <v>0.7896906768986964</v>
       </c>
       <c r="E131">
         <v>0.9090550114914616</v>
@@ -20840,13 +20840,13 @@
         <v>0.489776809</v>
       </c>
       <c r="B132">
-        <v>1.206382248639595</v>
+        <v>1.206471570472756</v>
       </c>
       <c r="C132">
-        <v>1.217727920836164</v>
+        <v>1.21773295435045</v>
       </c>
       <c r="D132">
-        <v>1.102622676657578</v>
+        <v>1.114526018674492</v>
       </c>
       <c r="E132">
         <v>1.286275290801285</v>
@@ -20995,13 +20995,13 @@
         <v>-0.927615797</v>
       </c>
       <c r="B133">
-        <v>0.1178028350344619</v>
+        <v>0.1178048587137419</v>
       </c>
       <c r="C133">
-        <v>0.1201869391899512</v>
+        <v>0.1201873790405586</v>
       </c>
       <c r="D133">
-        <v>0.008116586137811436</v>
+        <v>0.1135124664158041</v>
       </c>
       <c r="E133">
         <v>0.1608024493767612</v>
@@ -21150,13 +21150,13 @@
         <v>-0.570785532</v>
       </c>
       <c r="B134">
-        <v>0.1196690088670277</v>
+        <v>0.1196661862516612</v>
       </c>
       <c r="C134">
-        <v>0.1231119726619105</v>
+        <v>0.1231124013125165</v>
       </c>
       <c r="D134">
-        <v>-0.00181075234238168</v>
+        <v>0.1087491497777725</v>
       </c>
       <c r="E134">
         <v>0.1512063171978931</v>
@@ -21305,13 +21305,13 @@
         <v>0.629936161</v>
       </c>
       <c r="B135">
-        <v>0.2548277776962262</v>
+        <v>0.2548258771857237</v>
       </c>
       <c r="C135">
-        <v>0.2584958253198401</v>
+        <v>0.2584963230032506</v>
       </c>
       <c r="D135">
-        <v>0.1549983958097807</v>
+        <v>0.2401106791611158</v>
       </c>
       <c r="E135">
         <v>0.2900915208054162</v>
@@ -21460,13 +21460,13 @@
         <v>1.229927464</v>
       </c>
       <c r="B136">
-        <v>1.113456962111063</v>
+        <v>1.113498192143678</v>
       </c>
       <c r="C136">
-        <v>1.122272986768005</v>
+        <v>1.122275864005324</v>
       </c>
       <c r="D136">
-        <v>1.025192620085326</v>
+        <v>1.076436306716141</v>
       </c>
       <c r="E136">
         <v>1.177098004482172</v>
@@ -21615,13 +21615,13 @@
         <v>0.831135585</v>
       </c>
       <c r="B137">
-        <v>0.623109465467665</v>
+        <v>0.6231298568794803</v>
       </c>
       <c r="C137">
-        <v>0.6277694856022864</v>
+        <v>0.6277709526246342</v>
       </c>
       <c r="D137">
-        <v>0.5476583137866425</v>
+        <v>0.6028337405174504</v>
       </c>
       <c r="E137">
         <v>0.6704735029783894</v>
@@ -21770,13 +21770,13 @@
         <v>-0.615633494</v>
       </c>
       <c r="B138">
-        <v>-0.2038696577897346</v>
+        <v>-0.2038759408792924</v>
       </c>
       <c r="C138">
-        <v>-0.2040246453482075</v>
+        <v>-0.2040249049662717</v>
       </c>
       <c r="D138">
-        <v>-0.2782850864136719</v>
+        <v>-0.197234066577128</v>
       </c>
       <c r="E138">
         <v>-0.1834415720453429</v>
@@ -21925,13 +21925,13 @@
         <v>-0.504548817</v>
       </c>
       <c r="B139">
-        <v>-0.4904444537154456</v>
+        <v>-0.4904602818353976</v>
       </c>
       <c r="C139">
-        <v>-0.4928063810614881</v>
+        <v>-0.4928073315040403</v>
       </c>
       <c r="D139">
-        <v>-0.5464674521926499</v>
+        <v>-0.4656519013678866</v>
       </c>
       <c r="E139">
         <v>-0.4758893767117364</v>
